--- a/biology/Médecine/Hyperpathie/Hyperpathie.xlsx
+++ b/biology/Médecine/Hyperpathie/Hyperpathie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyperpathie est une sensibilité exagérée à la douleur devenant particulièrement intense et persistante après l'arrêt de l'excitation. Elle s'observe essentiellement au cours du syndrome thalamique, notamment après un accident vasculaire cérébral.
 Une sensation douloureuse et persistante à l'arrêt de l'excitation est anormalement ressentie face à un stimulus répétitif comme le contact du froid, une palpation, une mobilisation articulaire, un effleurement de tissus (vêtements, draps..).
-Ce syndrome peut se présenter avec une allodynie, une hyperesthésie, une hyperalgésie ou une dysesthésie[1].
+Ce syndrome peut se présenter avec une allodynie, une hyperesthésie, une hyperalgésie ou une dysesthésie.
 Une atteinte de la moelle épinière peut provoquer un syndrome spinothalamique avec des douleurs à caractère thermique comme des brûlures ou des engelures très pénibles.
-L'hyperpathie se manifeste par exemple comme un retard de perception d'une piqûre d'épingle, diffusée sur une zone plus ou moins étendue, et perçue comme une brûlure[2].
+L'hyperpathie se manifeste par exemple comme un retard de perception d'une piqûre d'épingle, diffusée sur une zone plus ou moins étendue, et perçue comme une brûlure.
 </t>
         </is>
       </c>
